--- a/google.xlsx
+++ b/google.xlsx
@@ -11631,7 +11631,7 @@
         <v>1168.48999</v>
       </c>
       <c r="E563" t="n">
-        <v>1012400</v>
+        <v>961700</v>
       </c>
       <c r="F563" t="n">
         <v>1168.48999</v>
@@ -11711,7 +11711,7 @@
         <v>1205.920044</v>
       </c>
       <c r="E567" t="n">
-        <v>1017800</v>
+        <v>1014300</v>
       </c>
       <c r="F567" t="n">
         <v>1205.920044</v>
@@ -13171,7 +13171,7 @@
         <v>1146.329956</v>
       </c>
       <c r="E640" t="n">
-        <v>1291300</v>
+        <v>1290700</v>
       </c>
       <c r="F640" t="n">
         <v>1146.329956</v>
@@ -14731,7 +14731,7 @@
         <v>1291.800049</v>
       </c>
       <c r="E718" t="n">
-        <v>1152700</v>
+        <v>1153000</v>
       </c>
       <c r="F718" t="n">
         <v>1291.800049</v>
@@ -15911,7 +15911,7 @@
         <v>1485.939941</v>
       </c>
       <c r="E777" t="n">
-        <v>3055200</v>
+        <v>3036800</v>
       </c>
       <c r="F777" t="n">
         <v>1485.939941</v>
@@ -16271,7 +16271,7 @@
         <v>1339.329956</v>
       </c>
       <c r="E795" t="n">
-        <v>3790600</v>
+        <v>3789100</v>
       </c>
       <c r="F795" t="n">
         <v>1339.329956</v>
@@ -17011,7 +17011,7 @@
         <v>1263.209961</v>
       </c>
       <c r="E832" t="n">
-        <v>2093100</v>
+        <v>2092400</v>
       </c>
       <c r="F832" t="n">
         <v>1263.209961</v>
@@ -17051,7 +17051,7 @@
         <v>1279.310059</v>
       </c>
       <c r="E834" t="n">
-        <v>1640400</v>
+        <v>1639600</v>
       </c>
       <c r="F834" t="n">
         <v>1279.310059</v>
@@ -17251,7 +17251,7 @@
         <v>1388.369995</v>
       </c>
       <c r="E844" t="n">
-        <v>1388100</v>
+        <v>1386900</v>
       </c>
       <c r="F844" t="n">
         <v>1388.369995</v>
@@ -17311,7 +17311,7 @@
         <v>1349.329956</v>
       </c>
       <c r="E847" t="n">
-        <v>1810600</v>
+        <v>1812600</v>
       </c>
       <c r="F847" t="n">
         <v>1349.329956</v>
@@ -17371,7 +17371,7 @@
         <v>1383.939941</v>
       </c>
       <c r="E850" t="n">
-        <v>1824000</v>
+        <v>1822400</v>
       </c>
       <c r="F850" t="n">
         <v>1383.939941</v>
@@ -17531,7 +17531,7 @@
         <v>1428.920044</v>
       </c>
       <c r="E858" t="n">
-        <v>1838100</v>
+        <v>1820900</v>
       </c>
       <c r="F858" t="n">
         <v>1428.920044</v>
@@ -17731,7 +17731,7 @@
         <v>1413.180054</v>
       </c>
       <c r="E868" t="n">
-        <v>1944200</v>
+        <v>1946400</v>
       </c>
       <c r="F868" t="n">
         <v>1413.180054</v>
@@ -17791,7 +17791,7 @@
         <v>1451.119995</v>
       </c>
       <c r="E871" t="n">
-        <v>1548300</v>
+        <v>1549600</v>
       </c>
       <c r="F871" t="n">
         <v>1451.119995</v>
@@ -18251,7 +18251,7 @@
         <v>1558.420044</v>
       </c>
       <c r="E894" t="n">
-        <v>1218600</v>
+        <v>1216200</v>
       </c>
       <c r="F894" t="n">
         <v>1558.420044</v>
@@ -18351,7 +18351,7 @@
         <v>1500.339966</v>
       </c>
       <c r="E899" t="n">
-        <v>1701400</v>
+        <v>1702200</v>
       </c>
       <c r="F899" t="n">
         <v>1500.339966</v>
@@ -18511,7 +18511,7 @@
         <v>1494.48999</v>
       </c>
       <c r="E907" t="n">
-        <v>1576600</v>
+        <v>1577800</v>
       </c>
       <c r="F907" t="n">
         <v>1494.48999</v>
@@ -18571,7 +18571,7 @@
         <v>1506.619995</v>
       </c>
       <c r="E910" t="n">
-        <v>1437700</v>
+        <v>1437000</v>
       </c>
       <c r="F910" t="n">
         <v>1506.619995</v>
@@ -18811,7 +18811,7 @@
         <v>1644.410034</v>
       </c>
       <c r="E922" t="n">
-        <v>1499800</v>
+        <v>1499000</v>
       </c>
       <c r="F922" t="n">
         <v>1644.410034</v>
@@ -18851,7 +18851,7 @@
         <v>1660.709961</v>
       </c>
       <c r="E924" t="n">
-        <v>1826700</v>
+        <v>1825300</v>
       </c>
       <c r="F924" t="n">
         <v>1660.709961</v>
@@ -19251,7 +19251,7 @@
         <v>1469.599976</v>
       </c>
       <c r="E944" t="n">
-        <v>1700600</v>
+        <v>1701600</v>
       </c>
       <c r="F944" t="n">
         <v>1469.599976</v>
@@ -19451,7 +19451,7 @@
         <v>1568.079956</v>
       </c>
       <c r="E954" t="n">
-        <v>1931000</v>
+        <v>1929300</v>
       </c>
       <c r="F954" t="n">
         <v>1568.079956</v>
@@ -20111,7 +20111,7 @@
         <v>1798.099976</v>
       </c>
       <c r="E987" t="n">
-        <v>1739000</v>
+        <v>1736900</v>
       </c>
       <c r="F987" t="n">
         <v>1798.099976</v>
@@ -20671,7 +20671,7 @@
         <v>1746.550049</v>
       </c>
       <c r="E1015" t="n">
-        <v>1357700</v>
+        <v>1357000</v>
       </c>
       <c r="F1015" t="n">
         <v>1746.550049</v>
@@ -20871,10 +20871,2190 @@
         <v>1830.790039</v>
       </c>
       <c r="E1025" t="n">
-        <v>2744400</v>
+        <v>2748300</v>
       </c>
       <c r="F1025" t="n">
         <v>1830.790039</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1843.939941</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1898.829956</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1842.640015</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1863.109985</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1773100</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1863.109985</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1846.170044</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1857.280029</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1810.199951</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1835.73999</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1612600</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1835.73999</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1853.569946</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1922.391968</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1850.930054</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1901.349976</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1602200</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1901.349976</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1922.560059</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1955.76001</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>1914.48999</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1927.51001</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>2273700</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>1927.51001</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>2116.5</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>2018.380005</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>2070.070068</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>4118200</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>2070.070068</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>2068.889893</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>2078.550049</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>2042.589966</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>2062.370117</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1852300</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>2062.370117</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>2102.51001</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>2059.330078</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1535100</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>2105.909912</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>2123.547119</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>2092.909912</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1241900</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>2092.909912</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>2078.540039</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>2105.129883</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>2078.540039</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>2083.51001</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>889900</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>2083.51001</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>2094.209961</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>2108.370117</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>2063.090088</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>2095.379883</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1135500</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>2095.379883</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>2099.51001</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>2102.030029</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>2077.320068</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>2095.889893</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>945700</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>2095.889893</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>2090.25</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>2108.820068</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>2083.129883</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>2104.110107</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>855700</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>2104.110107</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>2104.360107</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>2152.679932</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>2104.360107</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>2121.899902</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1133800</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>2121.899902</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>2133.659912</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>2098.919922</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>2128.310059</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1070900</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>2128.310059</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>2110.389893</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>2132.735107</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>2103.709961</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>2117.199951</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1121600</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>2117.199951</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>2119.27002</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>2130.530029</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>2097.409912</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>2101.139893</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1457400</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>2101.139893</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>2091.419922</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>2062.139893</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>2064.879883</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>1367500</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>2064.879883</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>2025.01001</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>2082.01001</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>2002.02002</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>2070.860107</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1667400</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>2070.860107</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>2041.829956</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>2100.780029</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>2038.130005</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>2095.169922</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1248300</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>2095.169922</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>2067.449951</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>2094.879883</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>2021.290039</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>2031.359985</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1828400</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>2031.359985</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>2050.52002</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>2071.01001</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>2016.060059</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>2036.859985</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>2083500</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>2036.859985</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>2056.52002</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>2086.52002</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>2046.099976</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>2081.51001</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>1404500</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>2081.51001</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>2076.189941</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>2104.370117</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>2071.26001</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>2075.840088</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>1134600</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>2075.840088</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>2067.209961</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>2088.518066</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>2026.709961</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1484200</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>2026.709961</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>2023.369995</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>2089.23999</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>2020.27002</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>2049.090088</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>2118000</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>2049.090088</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>2073.120117</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>2118.110107</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>2046.415039</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>2108.540039</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>2195200</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>2108.540039</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>2101.129883</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>2128.810059</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>2021.609985</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>2024.170044</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>1647400</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>2024.170044</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>2078.040039</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>2047.829956</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>2052.699951</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>1697300</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>2052.699951</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>2071.76001</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>2033.369995</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>2055.030029</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>1268600</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>2055.030029</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>2074.060059</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>2125.699951</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>2072.379883</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>2114.77002</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1239100</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>2114.77002</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>2090.26001</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>2047.550049</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>2061.919922</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1725800</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>2061.919922</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>2062.300049</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>2067.060059</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>2043.51001</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>2066.48999</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1298100</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>2066.48999</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>2078.98999</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>2123.560059</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>2070</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>2092.52002</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1491600</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>2092.52002</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>2076.030029</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>2109.780029</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>2054</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>2091.080078</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>2091.080078</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>2075.5</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>2033.550049</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>2036.219971</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1361400</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>2036.219971</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>2042.050049</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>2053.100098</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>2017.680054</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>2043.199951</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>2314900</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>2043.199951</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>2041.839966</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>2057.98999</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>2026.069946</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>2038.589966</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1954800</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>2038.589966</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>2051.699951</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>2072.302002</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>2039.219971</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>2052.959961</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1367000</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>2052.959961</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>2065.370117</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>2078.209961</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>2041.555054</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>2045.060059</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1154000</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>2045.060059</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>2044.810059</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>2058.870117</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>2010.72998</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>2044.359985</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1418900</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>2044.359985</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>2038.859985</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>2050.98999</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>2014.02002</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>2035.550049</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>1493500</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>2035.550049</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>2027.880005</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>2058.429932</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>2015.619995</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>2055.949951</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1229800</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>2055.949951</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>2057.629883</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>2070.780029</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>2044.030029</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>2055.540039</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1036600</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>2055.540039</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>2059.120117</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>2093.326904</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>2056.745117</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>2068.629883</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>1459900</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>2068.629883</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>2097.949951</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>2142.939941</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>2096.889893</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>2137.75</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>2137.75</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>2152.939941</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>2237.310059</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>2151.620117</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>2225.550049</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>2164900</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>2225.550049</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>2222.5</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>2237.659912</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>2214.800049</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>2224.75</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1353000</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>2224.75</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>2226.129883</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>2225.330078</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>2249.679932</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>1289900</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>2249.679932</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>2277.959961</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>2284.004883</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>2257.679932</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>2265.439941</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>1358300</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>2265.439941</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>2256.699951</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>2289.040039</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>2253.714111</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>2285.879883</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>1044400</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>2285.879883</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>2266.25</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>2275.320068</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>2238.465088</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>2254.790039</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1565900</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>2254.790039</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>2261.469971</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>2277.209961</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>2256.090088</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>2267.27002</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>1165500</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>2267.27002</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>2275.159912</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>2277.98999</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>2249.189941</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>2254.840088</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1011000</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>2254.840088</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>2276.97998</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>2306.596924</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>2296.659912</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1373600</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>2296.659912</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>2306.439941</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>2284.449951</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>2297.76001</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1129800</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>2297.76001</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2291.97998</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>2318.449951</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>2287.844971</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>2302.399902</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1234400</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>2302.399902</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>2307.889893</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>2309.600098</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>2271.709961</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>2293.629883</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>1088700</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>2293.629883</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>2285.25</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>2295.320068</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>2258.570068</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>2293.290039</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>1196500</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>2293.290039</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>2293.22998</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>2303.761963</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>2256.449951</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>2267.919922</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>1054800</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>2267.919922</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>2283.469971</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>2325.820068</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>2278.209961</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>2315.300049</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>1433500</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>2315.300049</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>2319.929932</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>2341.26001</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>2313.840088</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>2326.73999</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>1041700</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>2326.73999</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>2337.449951</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>2304.27002</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>2307.120117</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>1598600</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>2307.120117</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>2407.14502</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>2452.37793</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>2374.850098</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>2379.909912</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>2986400</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>2379.909912</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>2410.330078</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>2436.52002</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>2402.280029</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>2429.889893</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>1977700</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>2429.889893</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>2404.48999</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>2427.139893</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>2402.159912</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>2410.120117</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>1957100</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>2410.120117</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>2402.719971</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>2419.699951</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>2384.5</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>2395.169922</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>1689400</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>2395.169922</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>2369.73999</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>2379.26001</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>2311.699951</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>2354.25</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>1756000</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>2354.25</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>2368.419922</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>2382.199951</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>2351.409912</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>2356.73999</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>1090300</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>2356.73999</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>2350.639893</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>2382.709961</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>2342.337891</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>2381.350098</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>1030900</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>2381.350098</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>2416.409912</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>2398.689941</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>1163600</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>2398.689941</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>2374.889893</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>2378</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>2334.72998</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>2341.659912</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>1300300</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>2341.659912</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>2291.860107</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>2322</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>2283</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>2308.76001</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>1605500</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>2308.76001</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>2261.709961</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>2285.370117</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>2230.050049</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>2239.080078</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>1746700</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>2239.080078</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>2261.090088</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>2276.601074</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>2242.719971</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>2261.969971</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>1333500</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>2261.969971</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>2291.830078</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>2321.139893</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>2283.320068</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>2316.159912</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>1331200</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>2316.159912</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>2309.320068</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>2323.340088</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>2295</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>2321.409912</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>992100</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>2321.409912</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>2336.906006</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>2343.149902</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>2303.159912</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>2303.429932</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>865100</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>2303.429932</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>2264.399902</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>2316.76001</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>2263.52002</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>2308.709961</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>967500</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>2308.709961</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>2328.040039</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>2360.340088</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>2321.090088</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>2356.090088</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1191600</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>2356.090088</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>2365.98999</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>2369</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>2342.370117</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>2345.100098</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1141600</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>2345.100098</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>2418.47998</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>2360.110107</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>2406.669922</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1062200</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>2406.669922</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>2432.889893</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>2402.98999</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>2409.070068</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>941900</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>2409.070068</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>2412.834961</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>2442.944092</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>2412.514893</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>2433.530029</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1092800</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>2433.530029</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>2436.939941</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>2440</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>2402</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>2402.51001</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1948100</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>2402.51001</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>2421.959961</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>2428.139893</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>2407.689941</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>2411.560059</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>1205400</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>2411.560059</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>2437.970947</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>2404.879883</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>2429.810059</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>958300</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>2429.810059</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>2435.310059</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>2404.199951</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>2421.280029</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>857900</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>2421.280029</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>2395.02002</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>2409.745117</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>2382.830078</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>2404.610107</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>917300</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>2404.610107</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>2422.52002</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>2453.858887</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>2417.77002</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>2451.76001</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>1297400</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>2451.76001</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>2451.320068</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>2441.072998</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>2466.090088</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1192500</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>2466.090088</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>2479.899902</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2494.495117</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>2468.23999</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>2482.850098</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>1253000</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>2482.850098</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>2499.5</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>2505</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>2487.330078</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>2491.399902</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>1006300</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>2491.399902</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>2494.01001</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>2523.26001</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>2521.600098</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>1561700</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>2521.600098</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>2524.919922</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>2526.98999</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>2498.290039</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>2513.929932</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>1262000</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>2513.929932</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>2513.389893</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2528.22998</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>2500.939941</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>2527.040039</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>1127500</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>2527.040039</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>2530.439941</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2537.23999</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>2512.969971</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>2520.659912</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>1109100</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>2520.659912</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>2524.949951</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>2530.469971</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>2482.999023</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>2513.929932</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>1315800</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>2513.929932</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>2510.459961</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>2543.929932</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>2510.300049</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>2527.419922</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>1287800</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>2527.419922</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>2514.110107</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>2527.780029</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>2492.060059</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>2511.350098</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>2665300</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>2511.350098</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>2514.800049</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>2540.735107</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>2502.685059</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>2529.100098</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>1312800</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>2529.100098</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>2529</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>2545.399902</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>2520.530029</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>2539.98999</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>1049200</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>2539.98999</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>2555.919922</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>2525.040039</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>2529.22998</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>984700</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>2529.22998</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>2541.070068</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>2550.709961</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>2539.199951</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>2545.639893</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>946700</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>2545.639893</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>2539.139893</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>2550.100098</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>2528.879883</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>2539.899902</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1674200</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>2539.899902</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>2546.73999</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>2519.476074</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>2536.389893</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>1405500</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>2536.389893</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>2535.449951</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>2508.73999</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>2520.370117</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>1047500</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>2520.370117</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>2513.071045</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>2516</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>2495.149902</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>2506.320068</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>1200300</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>2506.320068</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>2496.995117</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>2529.25</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>2496.995117</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>2527.370117</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>856000</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>2527.370117</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>2536.790039</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>2576.959961</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>2535.379883</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>2574.379883</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>1058000</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>2574.379883</v>
       </c>
     </row>
   </sheetData>
@@ -20910,172 +23090,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1842.33971601113</v>
+        <v>2570.98469539075</v>
       </c>
       <c r="B2" t="n">
-        <v>1814.55829025447</v>
+        <v>2541.38457444727</v>
       </c>
       <c r="C2" t="n">
-        <v>1870.12114176779</v>
+        <v>2600.58481633424</v>
       </c>
       <c r="D2" t="n">
-        <v>1799.85169181751</v>
+        <v>2525.71521693429</v>
       </c>
       <c r="E2" t="n">
-        <v>1884.82774020474</v>
+        <v>2616.25417384721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1843.36533837462</v>
+        <v>2572.56302675321</v>
       </c>
       <c r="B3" t="n">
-        <v>1806.41725748633</v>
+        <v>2532.84256116831</v>
       </c>
       <c r="C3" t="n">
-        <v>1880.31341926291</v>
+        <v>2612.28349233811</v>
       </c>
       <c r="D3" t="n">
-        <v>1786.85812494216</v>
+        <v>2511.8158168175</v>
       </c>
       <c r="E3" t="n">
-        <v>1899.87255180708</v>
+        <v>2633.31023668892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1844.39096073811</v>
+        <v>2574.14135811566</v>
       </c>
       <c r="B4" t="n">
-        <v>1800.1358622117</v>
+        <v>2526.39972416066</v>
       </c>
       <c r="C4" t="n">
-        <v>1888.64605926453</v>
+        <v>2621.88299207067</v>
       </c>
       <c r="D4" t="n">
-        <v>1776.7086281843</v>
+        <v>2501.1268297653</v>
       </c>
       <c r="E4" t="n">
-        <v>1912.07329329193</v>
+        <v>2647.15588646603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1845.41658310161</v>
+        <v>2575.71968947812</v>
       </c>
       <c r="B5" t="n">
-        <v>1794.9005776198</v>
+        <v>2521.12287785778</v>
       </c>
       <c r="C5" t="n">
-        <v>1895.93258858342</v>
+        <v>2630.31650109845</v>
       </c>
       <c r="D5" t="n">
-        <v>1768.15901965343</v>
+        <v>2492.22107161244</v>
       </c>
       <c r="E5" t="n">
-        <v>1922.67414654979</v>
+        <v>2659.2183073438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1846.4422054651</v>
+        <v>2577.29802084057</v>
       </c>
       <c r="B6" t="n">
-        <v>1790.35994557756</v>
+        <v>2516.61556814196</v>
       </c>
       <c r="C6" t="n">
-        <v>1902.52446535264</v>
+        <v>2637.98047353918</v>
       </c>
       <c r="D6" t="n">
-        <v>1760.67179051931</v>
+        <v>2484.49221810856</v>
       </c>
       <c r="E6" t="n">
-        <v>1932.21262041089</v>
+        <v>2670.10382357258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1847.4678278286</v>
+        <v>2578.87635220302</v>
       </c>
       <c r="B7" t="n">
-        <v>1786.32395701272</v>
+        <v>2512.66526331354</v>
       </c>
       <c r="C7" t="n">
-        <v>1908.61169864447</v>
+        <v>2645.08744109251</v>
       </c>
       <c r="D7" t="n">
-        <v>1753.95634698267</v>
+        <v>2477.61523006829</v>
       </c>
       <c r="E7" t="n">
-        <v>1940.97930867452</v>
+        <v>2680.13747433776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1848.49345019209</v>
+        <v>2580.45468356548</v>
       </c>
       <c r="B8" t="n">
-        <v>1782.67608164394</v>
+        <v>2509.14229671478</v>
       </c>
       <c r="C8" t="n">
-        <v>1914.31081874024</v>
+        <v>2651.76707041618</v>
       </c>
       <c r="D8" t="n">
-        <v>1747.83447135751</v>
+        <v>2471.3917994516</v>
       </c>
       <c r="E8" t="n">
-        <v>1949.15242902667</v>
+        <v>2689.51756767936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1849.51907255558</v>
+        <v>2582.03301492793</v>
       </c>
       <c r="B9" t="n">
-        <v>1779.33874007661</v>
+        <v>2505.96064974348</v>
       </c>
       <c r="C9" t="n">
-        <v>1919.69940503455</v>
+        <v>2658.10538011238</v>
       </c>
       <c r="D9" t="n">
-        <v>1742.18751619845</v>
+        <v>2465.69037215886</v>
       </c>
       <c r="E9" t="n">
-        <v>1956.85062891272</v>
+        <v>2698.375657697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1850.54469491908</v>
+        <v>2583.61134629039</v>
       </c>
       <c r="B10" t="n">
-        <v>1776.25719845356</v>
+        <v>2503.05979154953</v>
       </c>
       <c r="C10" t="n">
-        <v>1924.83219138459</v>
+        <v>2664.16290103124</v>
       </c>
       <c r="D10" t="n">
-        <v>1736.93177329451</v>
+        <v>2460.4183742435</v>
       </c>
       <c r="E10" t="n">
-        <v>1964.15761654364</v>
+        <v>2706.80431833727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1851.57031728257</v>
+        <v>2585.18967765284</v>
       </c>
       <c r="B11" t="n">
-        <v>1773.39113082371</v>
+        <v>2500.39521322514</v>
       </c>
       <c r="C11" t="n">
-        <v>1929.74950374143</v>
+        <v>2669.98414208054</v>
       </c>
       <c r="D11" t="n">
-        <v>1732.00556942563</v>
+        <v>2455.50773520518</v>
       </c>
       <c r="E11" t="n">
-        <v>1971.13506513951</v>
+        <v>2714.8716201005</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -370,12 +370,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -23064,12 +23064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
